--- a/derivatives/palm_data/all_activation_output_formatted.xlsx
+++ b/derivatives/palm_data/all_activation_output_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/derivatives/palm_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7791644E-102E-774E-9D7D-60CA63236248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAF27FBE-C647-CC42-A671-0B82D6B462B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_output" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="480" uniqueCount="36">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="633" uniqueCount="45">
   <si>
     <t>outcome</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>DOMAIN*OUTCOME</t>
+  </si>
+  <si>
+    <t>options: -corrcon, -ise, -ee</t>
+  </si>
+  <si>
+    <t>options: -corrcon</t>
+  </si>
+  <si>
+    <t>options: -corrcon, -ise</t>
+  </si>
+  <si>
+    <t>0.0183*</t>
+  </si>
+  <si>
+    <t>0.0184*</t>
+  </si>
+  <si>
+    <t>0.012*</t>
+  </si>
+  <si>
+    <t>0.0001*</t>
+  </si>
+  <si>
+    <t>0.0002*</t>
+  </si>
+  <si>
+    <t>0.0463*</t>
   </si>
 </sst>
 </file>
@@ -300,7 +327,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +507,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -650,7 +683,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +713,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2270,17 +2307,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DE5DAD-5AD5-C44A-B3E5-86A430AEA83D}">
-  <dimension ref="A1:AC73"/>
+  <dimension ref="A1:AC274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AC25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -2321,6 +2358,9 @@
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
@@ -2482,8 +2522,8 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <v>1E-4</v>
+      <c r="C5" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -2563,8 +2603,8 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
-        <v>1E-4</v>
+      <c r="C6" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
@@ -2626,8 +2666,8 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
-        <v>1E-4</v>
+      <c r="C7" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5" t="s">
@@ -3150,8 +3190,8 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10">
-        <v>4.6300000000000001E-2</v>
+      <c r="C17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>20</v>
@@ -3231,8 +3271,8 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10">
-        <v>4.6300000000000001E-2</v>
+      <c r="C18" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5" t="s">
@@ -3502,8 +3542,8 @@
       <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10">
-        <v>1.2E-2</v>
+      <c r="I23" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="3" t="s">
@@ -3579,8 +3619,8 @@
       <c r="H24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="10">
-        <v>1.2E-2</v>
+      <c r="I24" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" s="5" t="s">
@@ -3688,232 +3728,1378 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>13.5344</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.3478</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>-0.20619999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0.57940000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>0.57940000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>-13.5344</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>-0.3478</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>0.20619999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0.64</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>0.42070000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>0.64</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>0.42070000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1.542</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>-1.1312</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>-2.198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>-1.542</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1.1312</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>2.198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0.1308</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>0.1308</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0.1757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>13.5344</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>0.3478</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="H55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>-0.20619999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0.36630000000000001</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.62160000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.62160000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="H56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>0.59119999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>0.36630000000000001</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>0.59119999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C59"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>-13.5344</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>-0.3478</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
+      <c r="H60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>0.20619999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.3785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.3785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="H61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1.542</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>-1.1312</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="H65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65">
         <v>-2.198</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.98809999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.98809999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>-1.542</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>1.1312</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="2">
+      <c r="H70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70">
         <v>2.198</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="2">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
